--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Food impaction_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Food impaction_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Patient reports a sudden onset of severe chest pain after eating.</t>
+          <t>Sudden onset of dysphagia after eating</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sudden onset of severe chest pain after eating is a classic symptom of food impaction, indicating that food has become lodged in the esophagus.</t>
+          <t>The sudden onset of difficulty swallowing immediately after eating is highly suggestive of food impaction, as it often occurs when a bolus of food becomes lodged in the esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Patient reports no history of esophageal disorders.</t>
+          <t>Gradual onset of dysphagia over weeks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of history of esophageal disorders suggests that the patient may not be predisposed to food impaction, making it less likely.</t>
+          <t>A gradual onset of difficulty swallowing over weeks is more indicative of a progressive condition like esophageal stricture or cancer, rather than an acute food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Patient describes difficulty swallowing solid foods.</t>
+          <t>Sensation of food stuck in the chest</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solid foods (dysphagia) is a common symptom associated with food impaction, suggesting obstruction in the esophagus.</t>
+          <t>A sensation of food being stuck in the chest is a classic symptom of food impaction, indicating that the food has not passed through the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Patient has normal bowel movements and no gastrointestinal symptoms.</t>
+          <t>No recent eating episode before symptoms</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal bowel movements and absence of gastrointestinal symptoms indicate that there is likely no obstruction or impaction occurring.</t>
+          <t>If symptoms occur without a recent eating episode, it is less likely to be food impaction, which typically follows immediately after eating.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patient experiences regurgitation of undigested food.</t>
+          <t>Inability to swallow saliva</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regurgitation of undigested food indicates that food is not passing through the esophagus properly, which is consistent with food impaction.</t>
+          <t>Inability to swallow saliva due to obstruction is a strong indicator of food impaction, as it suggests a complete blockage in the esophagus.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Patient denies any recent weight loss or changes in appetite.</t>
+          <t>Presence of regurgitation without obstruction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Denial of weight loss or appetite changes suggests that there is no significant obstruction affecting the patient's ability to eat, which is inconsistent with food impaction.</t>
+          <t>Regurgitation without a sensation of obstruction suggests a motility disorder rather than food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Patient has a history of eating large pieces of food or poorly chewed food.</t>
+          <t>Painful swallowing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A history of consuming large or poorly chewed food increases the likelihood of food impaction occurring, as these factors can lead to obstruction.</t>
+          <t>Painful swallowing, or odynophagia, can occur when food is impacted and causes irritation or pressure in the esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Patient has not experienced any prior episodes of choking or food getting stuck.</t>
+          <t>Chronic heartburn without acute change</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No prior episodes of choking or food impaction reduce the likelihood of current food impaction, as it suggests a lack of recurrent issues.</t>
+          <t>Chronic heartburn without an acute change in symptoms is more consistent with gastroesophageal reflux disease (GERD) than food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Patient reports a sensation of something stuck in the throat.</t>
+          <t>History of eating a large piece of meat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The sensation of something stuck in the throat is a common complaint in food impaction cases, indicating a blockage in the esophagus.</t>
+          <t>Consuming a large piece of meat, often referred to as 'steakhouse syndrome,' is a common cause of food impaction due to its size and texture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Patient reports no associated symptoms such as vomiting or fever.</t>
+          <t>No pain or discomfort in the chest</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of associated symptoms like vomiting or fever makes food impaction less likely, as these symptoms often accompany such conditions.</t>
+          <t>The absence of pain or discomfort in the chest makes food impaction less likely, as it often causes irritation or pressure.</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with a history of esophageal strictures are more likely to experience food impaction due to narrowed passages.</t>
+          <t>Esophageal strictures can lead to narrowing of the esophagus, increasing the risk of food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of esophageal disorders suggests a lower likelihood of food impaction occurring.</t>
+          <t>Absence of esophageal disorders reduces the likelihood of structural or functional abnormalities leading to food impaction.</t>
         </is>
       </c>
     </row>
@@ -640,39 +640,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A history of previous food impaction episodes indicates a recurrent problem, making current food impaction more likely.</t>
+          <t>A history of previous food impaction episodes suggests a predisposition to recurrent events.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No use of medications affecting swallowing</t>
+          <t>No previous episodes of food impaction</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not using medications that impair swallowing indicates a lower risk for food impaction.</t>
+          <t>Lack of previous episodes suggests a lower risk of recurrent food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of medications that cause dry mouth (xerostomia)</t>
+          <t>Diagnosis of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Medications that lead to dry mouth can impair swallowing and increase the risk of food getting stuck.</t>
+          <t>Eosinophilic esophagitis is associated with inflammation and narrowing of the esophagus, which can lead to food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No previous episodes of dysphagia</t>
+          <t>No history of swallowing difficulties</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of dysphagia episodes suggests normal swallowing function, reducing the likelihood of food impaction.</t>
+          <t>Absence of swallowing difficulties indicates normal esophageal function, reducing the risk of food impaction.</t>
         </is>
       </c>
     </row>
@@ -684,39 +684,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERD can lead to esophageal inflammation and motility issues, increasing the likelihood of food impaction.</t>
+          <t>GERD can cause esophageal inflammation and scarring, increasing the risk of food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of significant weight loss</t>
+          <t>No use of medications affecting esophageal motility</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Significant weight loss can indicate underlying issues that may predispose to food impaction; its absence suggests a lower risk.</t>
+          <t>Not using medications that affect esophageal motility suggests normal esophageal function, decreasing the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prior surgical history involving the esophagus</t>
+          <t>Use of medications that reduce esophageal motility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Surgical alterations to the esophagus can create anatomical changes that predispose to food impaction.</t>
+          <t>Medications that reduce esophageal motility can impair the normal passage of food, leading to impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of food allergies</t>
+          <t>No history of allergic conditions like eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Food allergies can lead to swelling and impaction; absence of allergies suggests a lower risk for food impaction.</t>
+          <t>Absence of allergic conditions that affect the esophagus reduces the risk of inflammation and narrowing, which can lead to food impaction.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Frequent consumption of hard or dry foods</t>
+          <t>Family history of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients who regularly eat hard or dry foods are at a higher risk for food impaction due to the difficulty in swallowing and potential for obstruction.</t>
+          <t>Eosinophilic esophagitis is a condition that can lead to food impaction, and a family history increases the likelihood of this condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Regular consumption of soft or pureed foods</t>
+          <t>No family history of gastrointestinal disorders</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Patients who primarily eat soft or pureed foods are less likely to experience food impaction due to the ease of swallowing.</t>
+          <t>A lack of family history of gastrointestinal disorders reduces the likelihood of conditions that predispose to food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of esophageal disorders in family</t>
+          <t>History of atopic diseases in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A family history of esophageal disorders may indicate a genetic predisposition to conditions that increase the risk of food impaction.</t>
+          <t>Atopic diseases such as asthma, eczema, and allergic rhinitis are associated with eosinophilic esophagitis, which can cause food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No family history of esophageal or swallowing disorders</t>
+          <t>Non-allergenic diet</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of a family history of related disorders suggests a lower genetic risk for conditions that could lead to food impaction.</t>
+          <t>A diet low in allergens reduces the risk of eosinophilic esophagitis, which is a common cause of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Participation in activities that lead to rapid eating</t>
+          <t>Occupation involving frequent exposure to allergens</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Engaging in activities that encourage rapid eating can increase the likelihood of food impaction due to inadequate chewing and swallowing.</t>
+          <t>Exposure to allergens can exacerbate conditions like eosinophilic esophagitis, increasing the risk of food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engagement in mindful eating practices</t>
+          <t>No history of atopic diseases in family</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Practicing mindful eating can reduce the risk of food impaction by promoting slower eating and thorough chewing.</t>
+          <t>Without a family history of atopic diseases, the likelihood of eosinophilic esophagitis, and thus food impaction, is lower.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Diet high in allergenic foods</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Individuals with GERD may have esophageal changes that predispose them to food impaction.</t>
+          <t>A diet high in allergenic foods can trigger eosinophilic esophagitis, which is a risk factor for food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of previous food impaction incidents</t>
+          <t>Occupation with minimal allergen exposure</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A lack of previous incidents suggests that the patient is less likely to experience food impaction in the future.</t>
+          <t>Minimal exposure to allergens reduces the risk of developing conditions like eosinophilic esophagitis that can lead to food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Living alone or lack of social support during meals</t>
+          <t>Family history of esophageal strictures</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients who live alone may be less likely to seek help when experiencing difficulties with swallowing, increasing the risk of food impaction.</t>
+          <t>Esophageal strictures can lead to food impaction, and a family history suggests a genetic predisposition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Active participation in social meals</t>
+          <t>Family history of healthy esophageal function</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regularly eating with others can provide support and reduce the likelihood of food impaction due to shared meal experiences.</t>
+          <t>A family history of healthy esophageal function suggests a lower risk of structural or functional esophageal issues that could cause food impaction.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of dysphagia (difficulty swallowing)</t>
+          <t>Drooling</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with food impaction, as the obstruction can lead to difficulty in swallowing.</t>
+          <t>Drooling is a common sign of esophageal obstruction, which can occur with food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal swallowing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vital signs suggest that the patient is stable and may not be experiencing significant distress or complications from food impaction.</t>
+          <t>The ability to swallow normally suggests that there is no obstruction in the esophagus, making food impaction unlikely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Retrosternal pain or discomfort</t>
+          <t>Inability to swallow saliva</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with food impaction often report retrosternal pain due to the obstruction in the esophagus.</t>
+          <t>Inability to swallow saliva is indicative of a blockage in the esophagus, often due to food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of abdominal distension</t>
+          <t>No drooling</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of abdominal distension can indicate that there is no obstruction or significant gastrointestinal issue.</t>
+          <t>Absence of drooling indicates that there is no significant obstruction in the esophagus, which argues against food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Visible signs of distress during swallowing</t>
+          <t>Visible distress or discomfort</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients may exhibit signs of distress or discomfort when attempting to swallow, indicating a potential obstruction.</t>
+          <t>Patients with food impaction often appear visibly distressed due to the discomfort and inability to swallow.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No signs of dehydration</t>
+          <t>Normal neck examination</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of dehydration suggests that the patient is able to maintain fluid intake, which is less likely in cases of food impaction.</t>
+          <t>A normal neck examination without tenderness or swelling suggests there is no esophageal obstruction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tachycardia (increased heart rate)</t>
+          <t>Neck tenderness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tachycardia can occur due to pain or anxiety associated with food impaction.</t>
+          <t>Tenderness in the neck area can be associated with esophageal obstruction, such as food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal auscultation of bowel sounds</t>
+          <t>No visible distress</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal bowel sounds indicate that the gastrointestinal tract is functioning properly, which is less consistent with food impaction.</t>
+          <t>Lack of visible distress or discomfort suggests that there is no acute esophageal obstruction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Abdominal tenderness upon palpation</t>
+          <t>Gagging or retching</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tenderness in the abdomen may indicate complications related to food impaction, such as esophageal perforation or inflammation.</t>
+          <t>Gagging or retching can occur as a reflex response to esophageal obstruction from food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No fever or signs of infection</t>
+          <t>Normal breath sounds</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of fever suggests that there is no underlying infection or inflammatory process, which may accompany food impaction.</t>
+          <t>Normal breath sounds indicate that there is no aspiration or respiratory compromise, which can occur with severe food impaction.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal obstruction on imaging</t>
+          <t>Endoscopy showing food bolus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imaging studies such as X-rays or CT scans may show a clear obstruction in the esophagus, which is highly indicative of food impaction.</t>
+          <t>Direct visualization of a food bolus in the esophagus during endoscopy is a definitive finding for food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies</t>
+          <t>Normal endoscopy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal motility studies suggest that there is no underlying motility disorder contributing to food impaction, making it less likely.</t>
+          <t>A normal endoscopy, with no evidence of obstruction or food bolus, strongly suggests the absence of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Presence of food bolus on endoscopy</t>
+          <t>Barium swallow showing obstruction</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direct visualization during endoscopy can confirm the presence of a food bolus, which is definitive for food impaction.</t>
+          <t>A barium swallow test that shows an obstruction in the esophagus is highly indicative of food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative endoscopic findings</t>
+          <t>Normal barium swallow</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If endoscopy shows no obstruction or food bolus, it strongly argues against the diagnosis of food impaction.</t>
+          <t>A barium swallow that shows no obstruction or abnormalities in the esophagus argues against food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elevated white blood cell count</t>
+          <t>CT scan showing esophageal blockage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An elevated white blood cell count may indicate an inflammatory response due to food impaction, supporting the diagnosis.</t>
+          <t>A CT scan that reveals a blockage in the esophagus supports the diagnosis of food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal imaging results</t>
+          <t>CT scan showing no blockage</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Imaging studies that show no signs of obstruction or food retention provide strong evidence against food impaction.</t>
+          <t>A CT scan that does not reveal any blockage in the esophagus is evidence against food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barium swallow showing delayed transit</t>
+          <t>Esophagram showing filling defect</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A barium swallow study may reveal delayed transit of barium due to obstruction, supporting the diagnosis of food impaction.</t>
+          <t>An esophagram that shows a filling defect in the esophagus is suggestive of food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative barium swallow study</t>
+          <t>Esophagram showing normal passage</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A negative barium swallow study indicates that there is no obstruction or delayed transit, arguing against food impaction.</t>
+          <t>An esophagram that shows normal passage of contrast material through the esophagus suggests no food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CT scan showing localized edema or inflammation</t>
+          <t>Esophageal manometry showing abnormal motility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A CT scan may show localized edema or inflammation around the site of impaction, which is consistent with food impaction.</t>
+          <t>Abnormal esophageal motility on manometry can indicate a predisposition to food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of inflammatory markers</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal levels of inflammatory markers such as C-reactive protein (CRP) suggest that there is no inflammatory process due to food impaction.</t>
+          <t>Normal esophageal motility on manometry indicates that the esophagus is functioning properly, reducing the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
